--- a/biology/Botanique/Chloraea_volkmannii/Chloraea_volkmannii.xlsx
+++ b/biology/Botanique/Chloraea_volkmannii/Chloraea_volkmannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloraea volkmannii est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Chloraea. C'est une orchidée terrestre, originaire du sud de l'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante de taille moyenne préfère les climats froids. Son habitat est terrestre[1].  Herbacée, à  feuilles persistantes , elle atteint  30 à 50 cm de hauteur. La tige comporte des  feuilles inférieures oblongues et lancéolées de 5 à 6 cm de long et se termine par une inflorescence en épi, composée de 6 à 8 fleurs de couleur blanche, aux pétales striées de vert foncé avec de nombreuses petites verrucosités de même couleur parsemant le labelle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de taille moyenne préfère les climats froids. Son habitat est terrestre.  Herbacée, à  feuilles persistantes , elle atteint  30 à 50 cm de hauteur. La tige comporte des  feuilles inférieures oblongues et lancéolées de 5 à 6 cm de long et se termine par une inflorescence en épi, composée de 6 à 8 fleurs de couleur blanche, aux pétales striées de vert foncé avec de nombreuses petites verrucosités de même couleur parsemant le labelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est native d'Argentine (Neuquén), du centre et du sud du Chili[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est native d'Argentine (Neuquén), du centre et du sud du Chili.
 </t>
         </is>
       </c>
